--- a/WrittenWork/ParseTable.xlsx
+++ b/WrittenWork/ParseTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelcollett/Compilerv2/Compiler/WrittenWork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E989352B-5D99-2E4F-A1C0-D31A3CC4A3BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D510F484-D932-0D4C-90A2-1961F61F24F1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="19160" windowHeight="21600" xr2:uid="{9F8CB507-561A-604A-A82F-23B2F5C132D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="18000" xr2:uid="{9F8CB507-561A-604A-A82F-23B2F5C132D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E703A7-E904-2247-9A43-BF23FFACE658}">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/WrittenWork/ParseTable.xlsx
+++ b/WrittenWork/ParseTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelcollett/Compilerv2/Compiler/WrittenWork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D510F484-D932-0D4C-90A2-1961F61F24F1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44660018-1A3C-1347-9D9B-BB13FB93638D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="18000" xr2:uid="{9F8CB507-561A-604A-A82F-23B2F5C132D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>program</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>23.1 &amp; 23.2</t>
+  </si>
+  <si>
+    <t>EOF</t>
   </si>
 </sst>
 </file>
@@ -575,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E703A7-E904-2247-9A43-BF23FFACE658}">
-  <dimension ref="A1:AD34"/>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,7 +589,7 @@
     <col min="1" max="1" width="16.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -675,8 +678,11 @@
       <c r="AD1" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -692,7 +698,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -703,7 +709,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -717,7 +723,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -731,7 +737,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -742,7 +748,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -753,7 +759,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -761,7 +767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -769,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -780,7 +786,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -788,7 +794,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -799,7 +805,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -807,7 +813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -830,7 +836,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
